--- a/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run3_2.xlsx
+++ b/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run3_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlab\Documents\new_fmri\visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\blast\sl_fmri\shortened_fmri\modified_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,69 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
+  <si>
+    <t>repetition</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>trialnum</t>
+  </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>trialnum</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>repetition</t>
-  </si>
-  <si>
-    <t>Alien5.bmp</t>
+    <t>B.png</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Alien7.bmp</t>
-  </si>
-  <si>
-    <t>Alien9.bmp</t>
-  </si>
-  <si>
-    <t>Alien12.bmp</t>
-  </si>
-  <si>
-    <t>Alien8.bmp</t>
-  </si>
-  <si>
-    <t>Alien4.bmp</t>
-  </si>
-  <si>
-    <t>Alien10.bmp</t>
-  </si>
-  <si>
-    <t>Alien11.bmp</t>
-  </si>
-  <si>
-    <t>Alien6.bmp</t>
-  </si>
-  <si>
-    <t>Alien1.bmp</t>
-  </si>
-  <si>
-    <t>Alien3.bmp</t>
-  </si>
-  <si>
-    <t>Alien2.bmp</t>
-  </si>
-  <si>
-    <t>blank.png</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>A.png</t>
+  </si>
+  <si>
+    <t>K.png</t>
+  </si>
+  <si>
+    <t>D.png</t>
+  </si>
+  <si>
+    <t>C.png</t>
+  </si>
+  <si>
+    <t>M.png</t>
+  </si>
+  <si>
+    <t>E.png</t>
+  </si>
+  <si>
+    <t>J.png</t>
+  </si>
+  <si>
+    <t>F.png</t>
+  </si>
+  <si>
+    <t>L.png</t>
+  </si>
+  <si>
+    <t>G.png</t>
+  </si>
+  <si>
+    <t>H.png</t>
   </si>
 </sst>
 </file>
@@ -404,32 +398,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD37"/>
+      <selection activeCell="A26" sqref="A26:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -437,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -457,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>386</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -474,10 +468,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -494,10 +488,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -514,10 +508,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -534,10 +528,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -554,10 +548,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -574,10 +568,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -594,10 +588,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -614,10 +608,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>394</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -637,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -654,10 +648,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -674,10 +668,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>13</v>
-      </c>
-      <c r="B14">
-        <v>397</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -694,10 +688,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>398</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -714,10 +708,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>399</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -734,10 +728,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -754,10 +748,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -777,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>402</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -797,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -814,10 +808,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -834,10 +828,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>405</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -854,10 +848,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -874,10 +868,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -894,10 +888,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>408</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -914,242 +908,482 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
